--- a/data_year/zb/人民生活/城镇居民人均支出情况.xlsx
+++ b/data_year/zb/人民生活/城镇居民人均支出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1354 +538,858 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414</v>
+        <v>1753</v>
       </c>
       <c r="C2" t="n">
-        <v>71.40000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="D2" t="n">
-        <v>163</v>
+        <v>380</v>
       </c>
       <c r="E2" t="n">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>321</v>
+        <v>895</v>
       </c>
       <c r="G2" t="n">
-        <v>-43.8</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>680</v>
+        <v>2816</v>
       </c>
       <c r="I2" t="n">
-        <v>32.8</v>
+        <v>14.5</v>
       </c>
       <c r="J2" t="n">
-        <v>651</v>
+        <v>1467</v>
       </c>
       <c r="K2" t="n">
-        <v>112.3</v>
+        <v>9.6</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>5027</v>
+        <v>13821</v>
       </c>
       <c r="O2" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="P2" t="n">
-        <v>372</v>
+        <v>867</v>
       </c>
       <c r="Q2" t="n">
-        <v>-5.6</v>
+        <v>14.8</v>
       </c>
       <c r="R2" t="n">
-        <v>486</v>
+        <v>1242</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>1940</v>
+        <v>4402</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>442</v>
+        <v>1889</v>
       </c>
       <c r="C3" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="D3" t="n">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="E3" t="n">
-        <v>60.9</v>
+        <v>14.2</v>
       </c>
       <c r="F3" t="n">
-        <v>349</v>
+        <v>999</v>
       </c>
       <c r="G3" t="n">
-        <v>8.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="H3" t="n">
-        <v>696</v>
+        <v>3146</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>11.7</v>
       </c>
       <c r="J3" t="n">
-        <v>670</v>
+        <v>1661</v>
       </c>
       <c r="K3" t="n">
-        <v>2.9</v>
+        <v>13.2</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>5350</v>
+        <v>15554</v>
       </c>
       <c r="O3" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="P3" t="n">
-        <v>436</v>
+        <v>976</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.3</v>
+        <v>12.6</v>
       </c>
       <c r="R3" t="n">
-        <v>515</v>
+        <v>1426</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>14.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1979</v>
+        <v>5023</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>599</v>
+        <v>2139</v>
       </c>
       <c r="C4" t="n">
-        <v>35.4</v>
+        <v>13.2</v>
       </c>
       <c r="D4" t="n">
-        <v>178</v>
+        <v>479</v>
       </c>
       <c r="E4" t="n">
-        <v>-32</v>
+        <v>10.6</v>
       </c>
       <c r="F4" t="n">
-        <v>438</v>
+        <v>1099</v>
       </c>
       <c r="G4" t="n">
-        <v>25.5</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>842</v>
+        <v>3511</v>
       </c>
       <c r="I4" t="n">
-        <v>20.8</v>
+        <v>11.6</v>
       </c>
       <c r="J4" t="n">
-        <v>867</v>
+        <v>1810</v>
       </c>
       <c r="K4" t="n">
-        <v>29.6</v>
+        <v>9</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>6089</v>
+        <v>17107</v>
       </c>
       <c r="O4" t="n">
-        <v>14.9</v>
+        <v>7.1</v>
       </c>
       <c r="P4" t="n">
-        <v>385</v>
+        <v>1061</v>
       </c>
       <c r="Q4" t="n">
-        <v>-11.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>564</v>
+        <v>1535</v>
       </c>
       <c r="S4" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2216</v>
+        <v>5472</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>682</v>
+        <v>2318</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9</v>
+        <v>8.4</v>
       </c>
       <c r="D5" t="n">
-        <v>191</v>
+        <v>490</v>
       </c>
       <c r="E5" t="n">
-        <v>7.3</v>
+        <v>2.3</v>
       </c>
       <c r="F5" t="n">
-        <v>484</v>
+        <v>1136</v>
       </c>
       <c r="G5" t="n">
-        <v>10.7</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>997</v>
+        <v>4301</v>
       </c>
       <c r="I5" t="n">
-        <v>18.5</v>
+        <v>22.5</v>
       </c>
       <c r="J5" t="n">
-        <v>890</v>
+        <v>1988</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7706</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>6587</v>
+        <v>18488</v>
       </c>
       <c r="O5" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="P5" t="n">
-        <v>404</v>
+        <v>1129</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="R5" t="n">
-        <v>600</v>
+        <v>1554</v>
       </c>
       <c r="S5" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2337</v>
+        <v>5571</v>
       </c>
       <c r="U5" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>793</v>
+        <v>2637</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2</v>
+        <v>13.8</v>
       </c>
       <c r="D6" t="n">
-        <v>210</v>
+        <v>533</v>
       </c>
       <c r="E6" t="n">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>540</v>
+        <v>1306</v>
       </c>
       <c r="G6" t="n">
-        <v>11.5</v>
+        <v>14.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1107</v>
+        <v>4490</v>
       </c>
       <c r="I6" t="n">
-        <v>11.1</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>980</v>
+        <v>2142</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8438</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.5</v>
+      </c>
       <c r="N6" t="n">
-        <v>7280</v>
+        <v>19968</v>
       </c>
       <c r="O6" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="P6" t="n">
-        <v>401</v>
+        <v>1233</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>641</v>
+        <v>1627</v>
       </c>
       <c r="S6" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2609</v>
+        <v>6000</v>
       </c>
       <c r="U6" t="n">
-        <v>11.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>928</v>
+        <v>2895.3754395053</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>237</v>
+        <v>577.5221767914001</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="F7" t="n">
-        <v>615</v>
+        <v>1443.3695428569</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>10.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1292</v>
+        <v>4725.9776980571</v>
       </c>
       <c r="I7" t="n">
-        <v>16.7</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1033</v>
+        <v>2382.8358031542</v>
       </c>
       <c r="K7" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9192</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>21392.3629328899</v>
+      </c>
+      <c r="O7" t="n">
         <v>5.5</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>8068</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9.1</v>
-      </c>
       <c r="P7" t="n">
-        <v>438</v>
+        <v>1306.4818146765</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="R7" t="n">
-        <v>737</v>
+        <v>1701.1254543571</v>
       </c>
       <c r="S7" t="n">
-        <v>15.1</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2786</v>
+        <v>6359.6750034915</v>
       </c>
       <c r="U7" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1056</v>
+        <v>3173.864767</v>
       </c>
       <c r="C8" t="n">
-        <v>13.8</v>
+        <v>9.6</v>
       </c>
       <c r="D8" t="n">
-        <v>258</v>
+        <v>594.675646</v>
       </c>
       <c r="E8" t="n">
-        <v>8.800000000000001</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>635</v>
+        <v>1630.785228</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>1528</v>
+        <v>5113.711662</v>
       </c>
       <c r="I8" t="n">
-        <v>18.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>1122</v>
+        <v>2637.631983</v>
       </c>
       <c r="K8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10068.105361</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9.5</v>
+      </c>
       <c r="N8" t="n">
-        <v>8851</v>
+        <v>23078.896926</v>
       </c>
       <c r="O8" t="n">
-        <v>8.1</v>
+        <v>5.7</v>
       </c>
       <c r="P8" t="n">
-        <v>486</v>
+        <v>1426.810837</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>818</v>
+        <v>1739.007222</v>
       </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2948</v>
+        <v>6762.409581</v>
       </c>
       <c r="U8" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1242</v>
+        <v>3321.5149558531</v>
       </c>
       <c r="C9" t="n">
-        <v>17.6</v>
+        <v>4.7</v>
       </c>
       <c r="D9" t="n">
-        <v>293</v>
+        <v>651.5014765301</v>
       </c>
       <c r="E9" t="n">
-        <v>13.4</v>
+        <v>9.6</v>
       </c>
       <c r="F9" t="n">
-        <v>719</v>
+        <v>1777.3672478961</v>
       </c>
       <c r="G9" t="n">
-        <v>13.3</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>1762</v>
+        <v>5564.0021151521</v>
       </c>
       <c r="I9" t="n">
-        <v>15.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>1234</v>
+        <v>2846.6363714484</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>7.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10854.4764509642</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N9" t="n">
-        <v>10196</v>
+        <v>24444.9537775232</v>
       </c>
       <c r="O9" t="n">
-        <v>10.2</v>
+        <v>4.1</v>
       </c>
       <c r="P9" t="n">
-        <v>586</v>
+        <v>1525.0459353205</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.6</v>
+        <v>6.9</v>
       </c>
       <c r="R9" t="n">
-        <v>937</v>
+        <v>1757.9341926544</v>
       </c>
       <c r="S9" t="n">
-        <v>14.5</v>
+        <v>1.1</v>
       </c>
       <c r="T9" t="n">
-        <v>3423</v>
+        <v>7000.9514826682</v>
       </c>
       <c r="U9" t="n">
-        <v>16.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1278</v>
+        <v>3473.4740907686</v>
       </c>
       <c r="C10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>687.3990216577</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2045.6549564161</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6254.9714367943</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2974.1418552141</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12130.3713185652</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>26112.3078426057</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1629.3995990286</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1808.2363235218</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.9</v>
       </c>
-      <c r="D10" t="n">
-        <v>332</v>
-      </c>
-      <c r="E10" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F10" t="n">
-        <v>805</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2169</v>
-      </c>
-      <c r="I10" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1245</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>11489</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="P10" t="n">
-        <v>667</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1029</v>
-      </c>
-      <c r="S10" t="n">
-        <v>9.9</v>
-      </c>
       <c r="T10" t="n">
-        <v>3963</v>
+        <v>7239.0305592042</v>
       </c>
       <c r="U10" t="n">
-        <v>15.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1503</v>
+        <v>3671.3343674537</v>
       </c>
       <c r="C11" t="n">
-        <v>17.5</v>
+        <v>5.7</v>
       </c>
       <c r="D11" t="n">
-        <v>368</v>
+        <v>747.212360355</v>
       </c>
       <c r="E11" t="n">
-        <v>10.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>878</v>
+        <v>2282.7357091643</v>
       </c>
       <c r="G11" t="n">
-        <v>9.1</v>
+        <v>11.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2458</v>
+        <v>6780.2370732614</v>
       </c>
       <c r="I11" t="n">
-        <v>13.4</v>
+        <v>8.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1339</v>
+        <v>3327.9834847279</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13517.7267432045</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11.4</v>
+      </c>
       <c r="N11" t="n">
-        <v>12558</v>
+        <v>28063.3523012164</v>
       </c>
       <c r="O11" t="n">
-        <v>10.3</v>
+        <v>4.6</v>
       </c>
       <c r="P11" t="n">
-        <v>755</v>
+        <v>1689.3485229474</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.2</v>
+        <v>3.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1119</v>
+        <v>1831.9362143707</v>
       </c>
       <c r="S11" t="n">
-        <v>8.800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
-        <v>4136</v>
+        <v>7732.5645689361</v>
       </c>
       <c r="U11" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1753</v>
+        <v>3474.30039887154</v>
       </c>
       <c r="C12" t="n">
-        <v>16.7</v>
+        <v>-5.4</v>
       </c>
       <c r="D12" t="n">
-        <v>380</v>
+        <v>646.186445468094</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>-13.5</v>
       </c>
       <c r="F12" t="n">
-        <v>895</v>
+        <v>2172.19382496402</v>
       </c>
       <c r="G12" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6957.6853239154</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2591.73731227718</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-22.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12012.8483157976</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-11.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>27007.4469546006</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1640.00454396222</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1644.8374097277</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7880.50169541431</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2816</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1467</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>13821</v>
-      </c>
-      <c r="O12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>867</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1242</v>
-      </c>
-      <c r="S12" t="n">
-        <v>11</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4402</v>
-      </c>
-      <c r="U12" t="n">
-        <v>6.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1889</v>
+        <v>3932</v>
       </c>
       <c r="C13" t="n">
-        <v>7.8</v>
+        <v>13.173575931346</v>
       </c>
       <c r="D13" t="n">
-        <v>433</v>
+        <v>786.1</v>
       </c>
       <c r="E13" t="n">
-        <v>14.2</v>
+        <v>21.6506482785399</v>
       </c>
       <c r="F13" t="n">
-        <v>999</v>
+        <v>2521.3</v>
       </c>
       <c r="G13" t="n">
-        <v>11.7</v>
+        <v>16.0711337553751</v>
       </c>
       <c r="H13" t="n">
-        <v>3146</v>
+        <v>7405.3</v>
       </c>
       <c r="I13" t="n">
-        <v>11.7</v>
+        <v>6.43367233849894</v>
       </c>
       <c r="J13" t="n">
-        <v>1661</v>
+        <v>3322</v>
       </c>
       <c r="K13" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+        <v>28.1781137410545</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14058.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>17.0287436596373</v>
+      </c>
       <c r="N13" t="n">
-        <v>15554</v>
+        <v>30307.2</v>
       </c>
       <c r="O13" t="n">
-        <v>6.8</v>
+        <v>11.1</v>
       </c>
       <c r="P13" t="n">
-        <v>976</v>
+        <v>1819.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.6</v>
+        <v>10.9509120995416</v>
       </c>
       <c r="R13" t="n">
-        <v>1426</v>
+        <v>1842.8</v>
       </c>
       <c r="S13" t="n">
-        <v>14.8</v>
+        <v>12.033565694803</v>
       </c>
       <c r="T13" t="n">
-        <v>5023</v>
+        <v>8678.1</v>
       </c>
       <c r="U13" t="n">
-        <v>14.1</v>
+        <v>10.1211615124686</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2139</v>
+        <v>3908.80299234609</v>
       </c>
       <c r="C14" t="n">
-        <v>13.2</v>
+        <v>-0.589701592677126</v>
       </c>
       <c r="D14" t="n">
-        <v>479</v>
+        <v>813.6797625188819</v>
       </c>
       <c r="E14" t="n">
-        <v>10.6</v>
+        <v>3.50974602384993</v>
       </c>
       <c r="F14" t="n">
-        <v>1099</v>
+        <v>2480.67382502309</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>-1.61092833338934</v>
       </c>
       <c r="H14" t="n">
-        <v>3511</v>
+        <v>7643.50295520112</v>
       </c>
       <c r="I14" t="n">
-        <v>11.6</v>
+        <v>3.21637627004806</v>
       </c>
       <c r="J14" t="n">
-        <v>1810</v>
+        <v>3050.18052358955</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+        <v>-8.18351002427567</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13722.770748517</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-2.38801785599314</v>
+      </c>
       <c r="N14" t="n">
-        <v>17107</v>
+        <v>30390.8017047336</v>
       </c>
       <c r="O14" t="n">
-        <v>7.1</v>
+        <v>-1.66666666666669</v>
       </c>
       <c r="P14" t="n">
-        <v>1061</v>
+        <v>1800.45638600511</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.699999999999999</v>
+        <v>-1.05207814876292</v>
       </c>
       <c r="R14" t="n">
-        <v>1535</v>
+        <v>1735.15835683927</v>
       </c>
       <c r="S14" t="n">
-        <v>7.6</v>
+        <v>-5.83966762866365</v>
       </c>
       <c r="T14" t="n">
-        <v>5472</v>
+        <v>8958.346903210509</v>
       </c>
       <c r="U14" t="n">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2318</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>490</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1136</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4301</v>
-      </c>
-      <c r="I15" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1988</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7706</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>18488</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1129</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1554</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5571</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2637</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>533</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1306</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4490</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2142</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8438</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N16" t="n">
-        <v>19968</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1233</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1627</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>6000</v>
-      </c>
-      <c r="U16" t="n">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2895</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>578</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1443</v>
-      </c>
-      <c r="G17" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4726</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2383</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9192</v>
-      </c>
-      <c r="M17" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="N17" t="n">
-        <v>21392</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1306</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1701</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>6360</v>
-      </c>
-      <c r="U17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3174</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>595</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1631</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5114</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10068</v>
-      </c>
-      <c r="M18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>23079</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1427</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1739</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>6762</v>
-      </c>
-      <c r="U18" t="n">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3322</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>652</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1777</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5564</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2847</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>10854</v>
-      </c>
-      <c r="M19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="N19" t="n">
-        <v>24445</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1525</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1758</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7001</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3473</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>687</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2046</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>6255</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2974</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12130</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N20" t="n">
-        <v>26112</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1629</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1808</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7239</v>
-      </c>
-      <c r="U20" t="n">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3671</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D21" t="n">
-        <v>747</v>
-      </c>
-      <c r="E21" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2283</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6780</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3328</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13518</v>
-      </c>
-      <c r="M21" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="N21" t="n">
-        <v>28063</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1689</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1832</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7733</v>
-      </c>
-      <c r="U21" t="n">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3474</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-5.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>646</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-13.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2172</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6958</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2592</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-22.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12013</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-11.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>27007</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-6</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1640</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1645</v>
-      </c>
-      <c r="S22" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7881</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.9</v>
+        <v>3.22935784573249</v>
       </c>
     </row>
   </sheetData>
